--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.4470523289221</v>
+        <v>75.09884199999999</v>
       </c>
       <c r="H2">
-        <v>46.4470523289221</v>
+        <v>225.296526</v>
       </c>
       <c r="I2">
-        <v>0.01518666105308812</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="J2">
-        <v>0.01518666105308812</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.839493359722986</v>
+        <v>0.9840236666666667</v>
       </c>
       <c r="N2">
-        <v>0.839493359722986</v>
+        <v>2.952071</v>
       </c>
       <c r="O2">
-        <v>0.0818099111979609</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="P2">
-        <v>0.0818099111979609</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="Q2">
-        <v>38.99199200883616</v>
+        <v>73.89903786726066</v>
       </c>
       <c r="R2">
-        <v>38.99199200883616</v>
+        <v>665.0913408053459</v>
       </c>
       <c r="S2">
-        <v>0.001242419392146671</v>
+        <v>0.001993017975595573</v>
       </c>
       <c r="T2">
-        <v>0.001242419392146671</v>
+        <v>0.001993017975595573</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.4470523289221</v>
+        <v>75.09884199999999</v>
       </c>
       <c r="H3">
-        <v>46.4470523289221</v>
+        <v>225.296526</v>
       </c>
       <c r="I3">
-        <v>0.01518666105308812</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="J3">
-        <v>0.01518666105308812</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.45263670601819</v>
+        <v>2.460537333333333</v>
       </c>
       <c r="N3">
-        <v>2.45263670601819</v>
+        <v>7.381612000000001</v>
       </c>
       <c r="O3">
-        <v>0.2390131962287557</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="P3">
-        <v>0.2390131962287557</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="Q3">
-        <v>113.917745428262</v>
+        <v>184.7835044311013</v>
       </c>
       <c r="R3">
-        <v>113.917745428262</v>
+        <v>1663.051539879912</v>
       </c>
       <c r="S3">
-        <v>0.003629812398341353</v>
+        <v>0.004983513406307635</v>
       </c>
       <c r="T3">
-        <v>0.003629812398341353</v>
+        <v>0.004983513406307635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.4470523289221</v>
+        <v>75.09884199999999</v>
       </c>
       <c r="H4">
-        <v>46.4470523289221</v>
+        <v>225.296526</v>
       </c>
       <c r="I4">
-        <v>0.01518666105308812</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="J4">
-        <v>0.01518666105308812</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.29428765945227</v>
+        <v>0.36615</v>
       </c>
       <c r="N4">
-        <v>0.29428765945227</v>
+        <v>1.09845</v>
       </c>
       <c r="O4">
-        <v>0.02867878227695617</v>
+        <v>0.03051305940608911</v>
       </c>
       <c r="P4">
-        <v>0.02867878227695617</v>
+        <v>0.03051305940608911</v>
       </c>
       <c r="Q4">
-        <v>13.66879431833559</v>
+        <v>27.4974409983</v>
       </c>
       <c r="R4">
-        <v>13.66879431833559</v>
+        <v>247.4769689847</v>
       </c>
       <c r="S4">
-        <v>0.0004355349458554442</v>
+        <v>0.0007415914438687137</v>
       </c>
       <c r="T4">
-        <v>0.0004355349458554442</v>
+        <v>0.0007415914438687136</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.4470523289221</v>
+        <v>75.09884199999999</v>
       </c>
       <c r="H5">
-        <v>46.4470523289221</v>
+        <v>225.296526</v>
       </c>
       <c r="I5">
-        <v>0.01518666105308812</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="J5">
-        <v>0.01518666105308812</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>6.67509396000577</v>
+        <v>0.1263393333333333</v>
       </c>
       <c r="N5">
-        <v>6.67509396000577</v>
+        <v>0.379018</v>
       </c>
       <c r="O5">
-        <v>0.6504981102963272</v>
+        <v>0.01052847079974244</v>
       </c>
       <c r="P5">
-        <v>0.6504981102963272</v>
+        <v>0.01052847079974244</v>
       </c>
       <c r="Q5">
-        <v>310.0384384608598</v>
+        <v>9.487937632385332</v>
       </c>
       <c r="R5">
-        <v>310.0384384608598</v>
+        <v>85.391438691468</v>
       </c>
       <c r="S5">
-        <v>0.009878894316744654</v>
+        <v>0.0002558846609970705</v>
       </c>
       <c r="T5">
-        <v>0.009878894316744654</v>
+        <v>0.0002558846609970705</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2965.27213265818</v>
+        <v>75.09884199999999</v>
       </c>
       <c r="H6">
-        <v>2965.27213265818</v>
+        <v>225.296526</v>
       </c>
       <c r="I6">
-        <v>0.969546624615535</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="J6">
-        <v>0.969546624615535</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.839493359722986</v>
+        <v>8.062729666666668</v>
       </c>
       <c r="N6">
-        <v>0.839493359722986</v>
+        <v>24.188189</v>
       </c>
       <c r="O6">
-        <v>0.0818099111979609</v>
+        <v>0.671906457173937</v>
       </c>
       <c r="P6">
-        <v>0.0818099111979609</v>
+        <v>0.671906457173937</v>
       </c>
       <c r="Q6">
-        <v>2489.326265138159</v>
+        <v>605.5016613257127</v>
       </c>
       <c r="R6">
-        <v>2489.326265138159</v>
+        <v>5449.514951931414</v>
       </c>
       <c r="S6">
-        <v>0.07931852326207965</v>
+        <v>0.01633005963410199</v>
       </c>
       <c r="T6">
-        <v>0.07931852326207965</v>
+        <v>0.01633005963410199</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2965.27213265818</v>
+        <v>2966.075764666667</v>
       </c>
       <c r="H7">
-        <v>2965.27213265818</v>
+        <v>8898.227294</v>
       </c>
       <c r="I7">
-        <v>0.969546624615535</v>
+        <v>0.9599043414017944</v>
       </c>
       <c r="J7">
-        <v>0.969546624615535</v>
+        <v>0.9599043414017943</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.45263670601819</v>
+        <v>0.9840236666666667</v>
       </c>
       <c r="N7">
-        <v>2.45263670601819</v>
+        <v>2.952071</v>
       </c>
       <c r="O7">
-        <v>0.2390131962287557</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="P7">
-        <v>0.2390131962287557</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="Q7">
-        <v>7272.735275890293</v>
+        <v>2918.688749558431</v>
       </c>
       <c r="R7">
-        <v>7272.735275890293</v>
+        <v>26268.19874602588</v>
       </c>
       <c r="S7">
-        <v>0.2317344376421606</v>
+        <v>0.07871549225697849</v>
       </c>
       <c r="T7">
-        <v>0.2317344376421606</v>
+        <v>0.07871549225697849</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2965.27213265818</v>
+        <v>2966.075764666667</v>
       </c>
       <c r="H8">
-        <v>2965.27213265818</v>
+        <v>8898.227294</v>
       </c>
       <c r="I8">
-        <v>0.969546624615535</v>
+        <v>0.9599043414017944</v>
       </c>
       <c r="J8">
-        <v>0.969546624615535</v>
+        <v>0.9599043414017943</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.29428765945227</v>
+        <v>2.460537333333333</v>
       </c>
       <c r="N8">
-        <v>0.29428765945227</v>
+        <v>7.381612000000001</v>
       </c>
       <c r="O8">
-        <v>0.02867878227695617</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="P8">
-        <v>0.02867878227695617</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="Q8">
-        <v>872.6429955590168</v>
+        <v>7298.140152457548</v>
       </c>
       <c r="R8">
-        <v>872.6429955590168</v>
+        <v>65683.26137211794</v>
       </c>
       <c r="S8">
-        <v>0.02780541655470668</v>
+        <v>0.1968269808653042</v>
       </c>
       <c r="T8">
-        <v>0.02780541655470668</v>
+        <v>0.1968269808653042</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2965.27213265818</v>
+        <v>2966.075764666667</v>
       </c>
       <c r="H9">
-        <v>2965.27213265818</v>
+        <v>8898.227294</v>
       </c>
       <c r="I9">
-        <v>0.969546624615535</v>
+        <v>0.9599043414017944</v>
       </c>
       <c r="J9">
-        <v>0.969546624615535</v>
+        <v>0.9599043414017943</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.67509396000577</v>
+        <v>0.36615</v>
       </c>
       <c r="N9">
-        <v>6.67509396000577</v>
+        <v>1.09845</v>
       </c>
       <c r="O9">
-        <v>0.6504981102963272</v>
+        <v>0.03051305940608911</v>
       </c>
       <c r="P9">
-        <v>0.6504981102963272</v>
+        <v>0.03051305940608911</v>
       </c>
       <c r="Q9">
-        <v>19793.47010248005</v>
+        <v>1086.0286412327</v>
       </c>
       <c r="R9">
-        <v>19793.47010248005</v>
+        <v>9774.257771094302</v>
       </c>
       <c r="S9">
-        <v>0.630688247156588</v>
+        <v>0.0292896181933558</v>
       </c>
       <c r="T9">
-        <v>0.630688247156588</v>
+        <v>0.02928961819335579</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.215784338536759</v>
+        <v>2966.075764666667</v>
       </c>
       <c r="H10">
-        <v>0.215784338536759</v>
+        <v>8898.227294</v>
       </c>
       <c r="I10">
-        <v>7.055439356443292E-05</v>
+        <v>0.9599043414017944</v>
       </c>
       <c r="J10">
-        <v>7.055439356443292E-05</v>
+        <v>0.9599043414017943</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.839493359722986</v>
+        <v>0.1263393333333333</v>
       </c>
       <c r="N10">
-        <v>0.839493359722986</v>
+        <v>0.379018</v>
       </c>
       <c r="O10">
-        <v>0.0818099111979609</v>
+        <v>0.01052847079974244</v>
       </c>
       <c r="P10">
-        <v>0.0818099111979609</v>
+        <v>0.01052847079974244</v>
       </c>
       <c r="Q10">
-        <v>0.181149519333826</v>
+        <v>374.7320347241435</v>
       </c>
       <c r="R10">
-        <v>0.181149519333826</v>
+        <v>3372.588312517292</v>
       </c>
       <c r="S10">
-        <v>5.772048672132241E-06</v>
+        <v>0.01010632482899479</v>
       </c>
       <c r="T10">
-        <v>5.772048672132241E-06</v>
+        <v>0.01010632482899479</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.215784338536759</v>
+        <v>2966.075764666667</v>
       </c>
       <c r="H11">
-        <v>0.215784338536759</v>
+        <v>8898.227294</v>
       </c>
       <c r="I11">
-        <v>7.055439356443292E-05</v>
+        <v>0.9599043414017944</v>
       </c>
       <c r="J11">
-        <v>7.055439356443292E-05</v>
+        <v>0.9599043414017943</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.45263670601819</v>
+        <v>8.062729666666668</v>
       </c>
       <c r="N11">
-        <v>2.45263670601819</v>
+        <v>24.188189</v>
       </c>
       <c r="O11">
-        <v>0.2390131962287557</v>
+        <v>0.671906457173937</v>
       </c>
       <c r="P11">
-        <v>0.2390131962287557</v>
+        <v>0.671906457173937</v>
       </c>
       <c r="Q11">
-        <v>0.5292405892791106</v>
+        <v>23914.66706135896</v>
       </c>
       <c r="R11">
-        <v>0.5292405892791106</v>
+        <v>215232.0035522306</v>
       </c>
       <c r="S11">
-        <v>1.686343111381666E-05</v>
+        <v>0.644965925257161</v>
       </c>
       <c r="T11">
-        <v>1.686343111381666E-05</v>
+        <v>0.6449659252571609</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.215784338536759</v>
+        <v>0.2249183333333333</v>
       </c>
       <c r="H12">
-        <v>0.215784338536759</v>
+        <v>0.674755</v>
       </c>
       <c r="I12">
-        <v>7.055439356443292E-05</v>
+        <v>7.278980773162612E-05</v>
       </c>
       <c r="J12">
-        <v>7.055439356443292E-05</v>
+        <v>7.278980773162612E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.29428765945227</v>
+        <v>0.9840236666666667</v>
       </c>
       <c r="N12">
-        <v>0.29428765945227</v>
+        <v>2.952071</v>
       </c>
       <c r="O12">
-        <v>0.02867878227695617</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="P12">
-        <v>0.02867878227695617</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="Q12">
-        <v>0.06350266793443907</v>
+        <v>0.2213249630672222</v>
       </c>
       <c r="R12">
-        <v>0.06350266793443907</v>
+        <v>1.991924667605</v>
       </c>
       <c r="S12">
-        <v>2.023414091717049E-06</v>
+        <v>5.969017223652134E-06</v>
       </c>
       <c r="T12">
-        <v>2.023414091717049E-06</v>
+        <v>5.969017223652134E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.215784338536759</v>
+        <v>0.2249183333333333</v>
       </c>
       <c r="H13">
-        <v>0.215784338536759</v>
+        <v>0.674755</v>
       </c>
       <c r="I13">
-        <v>7.055439356443292E-05</v>
+        <v>7.278980773162612E-05</v>
       </c>
       <c r="J13">
-        <v>7.055439356443292E-05</v>
+        <v>7.278980773162612E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.67509396000577</v>
+        <v>2.460537333333333</v>
       </c>
       <c r="N13">
-        <v>6.67509396000577</v>
+        <v>7.381612000000001</v>
       </c>
       <c r="O13">
-        <v>0.6504981102963272</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="P13">
-        <v>0.6504981102963272</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="Q13">
-        <v>1.44038073483056</v>
+        <v>0.5534199561177777</v>
       </c>
       <c r="R13">
-        <v>1.44038073483056</v>
+        <v>4.98077960506</v>
       </c>
       <c r="S13">
-        <v>4.589549968676696E-05</v>
+        <v>1.492544358395082E-05</v>
       </c>
       <c r="T13">
-        <v>4.589549968676696E-05</v>
+        <v>1.492544358395082E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.274231462591379</v>
+        <v>0.2249183333333333</v>
       </c>
       <c r="H14">
-        <v>0.274231462591379</v>
+        <v>0.674755</v>
       </c>
       <c r="I14">
-        <v>8.966468405734754E-05</v>
+        <v>7.278980773162612E-05</v>
       </c>
       <c r="J14">
-        <v>8.966468405734754E-05</v>
+        <v>7.278980773162612E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.839493359722986</v>
+        <v>0.36615</v>
       </c>
       <c r="N14">
-        <v>0.839493359722986</v>
+        <v>1.09845</v>
       </c>
       <c r="O14">
-        <v>0.0818099111979609</v>
+        <v>0.03051305940608911</v>
       </c>
       <c r="P14">
-        <v>0.0818099111979609</v>
+        <v>0.03051305940608911</v>
       </c>
       <c r="Q14">
-        <v>0.2302154918725851</v>
+        <v>0.08235384775</v>
       </c>
       <c r="R14">
-        <v>0.2302154918725851</v>
+        <v>0.7411846297500001</v>
       </c>
       <c r="S14">
-        <v>7.335459840324822E-06</v>
+        <v>2.221039727472912E-06</v>
       </c>
       <c r="T14">
-        <v>7.335459840324822E-06</v>
+        <v>2.221039727472912E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.274231462591379</v>
+        <v>0.2249183333333333</v>
       </c>
       <c r="H15">
-        <v>0.274231462591379</v>
+        <v>0.674755</v>
       </c>
       <c r="I15">
-        <v>8.966468405734754E-05</v>
+        <v>7.278980773162612E-05</v>
       </c>
       <c r="J15">
-        <v>8.966468405734754E-05</v>
+        <v>7.278980773162612E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>2.45263670601819</v>
+        <v>0.1263393333333333</v>
       </c>
       <c r="N15">
-        <v>2.45263670601819</v>
+        <v>0.379018</v>
       </c>
       <c r="O15">
-        <v>0.2390131962287557</v>
+        <v>0.01052847079974244</v>
       </c>
       <c r="P15">
-        <v>0.2390131962287557</v>
+        <v>0.01052847079974244</v>
       </c>
       <c r="Q15">
-        <v>0.6725901510966703</v>
+        <v>0.02841603228777778</v>
       </c>
       <c r="R15">
-        <v>0.6725901510966703</v>
+        <v>0.25574429059</v>
       </c>
       <c r="S15">
-        <v>2.143104272538819E-05</v>
+        <v>7.663653652212919E-07</v>
       </c>
       <c r="T15">
-        <v>2.143104272538819E-05</v>
+        <v>7.663653652212919E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.274231462591379</v>
+        <v>0.2249183333333333</v>
       </c>
       <c r="H16">
-        <v>0.274231462591379</v>
+        <v>0.674755</v>
       </c>
       <c r="I16">
-        <v>8.966468405734754E-05</v>
+        <v>7.278980773162612E-05</v>
       </c>
       <c r="J16">
-        <v>8.966468405734754E-05</v>
+        <v>7.278980773162612E-05</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.29428765945227</v>
+        <v>8.062729666666668</v>
       </c>
       <c r="N16">
-        <v>0.29428765945227</v>
+        <v>24.188189</v>
       </c>
       <c r="O16">
-        <v>0.02867878227695617</v>
+        <v>0.671906457173937</v>
       </c>
       <c r="P16">
-        <v>0.02867878227695617</v>
+        <v>0.671906457173937</v>
       </c>
       <c r="Q16">
-        <v>0.08070293527418965</v>
+        <v>1.813455718743889</v>
       </c>
       <c r="R16">
-        <v>0.08070293527418965</v>
+        <v>16.321101468695</v>
       </c>
       <c r="S16">
-        <v>2.571473952012733E-06</v>
+        <v>4.890794183132895E-05</v>
       </c>
       <c r="T16">
-        <v>2.571473952012733E-06</v>
+        <v>4.890794183132895E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.274231462591379</v>
+        <v>0.4181903333333334</v>
       </c>
       <c r="H17">
-        <v>0.274231462591379</v>
+        <v>1.254571</v>
       </c>
       <c r="I17">
-        <v>8.966468405734754E-05</v>
+        <v>0.0001353379847139687</v>
       </c>
       <c r="J17">
-        <v>8.966468405734754E-05</v>
+        <v>0.0001353379847139686</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.67509396000577</v>
+        <v>0.9840236666666667</v>
       </c>
       <c r="N17">
-        <v>6.67509396000577</v>
+        <v>2.952071</v>
       </c>
       <c r="O17">
-        <v>0.6504981102963272</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="P17">
-        <v>0.6504981102963272</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="Q17">
-        <v>1.830520779587262</v>
+        <v>0.4115091851712223</v>
       </c>
       <c r="R17">
-        <v>1.830520779587262</v>
+        <v>3.703582666541001</v>
       </c>
       <c r="S17">
-        <v>5.832670753962179E-05</v>
+        <v>1.109818512985377E-05</v>
       </c>
       <c r="T17">
-        <v>5.832670753962179E-05</v>
+        <v>1.109818512985377E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>46.2018723605547</v>
+        <v>0.4181903333333334</v>
       </c>
       <c r="H18">
-        <v>46.2018723605547</v>
+        <v>1.254571</v>
       </c>
       <c r="I18">
-        <v>0.01510649525375528</v>
+        <v>0.0001353379847139687</v>
       </c>
       <c r="J18">
-        <v>0.01510649525375528</v>
+        <v>0.0001353379847139686</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.839493359722986</v>
+        <v>2.460537333333333</v>
       </c>
       <c r="N18">
-        <v>0.839493359722986</v>
+        <v>7.381612000000001</v>
       </c>
       <c r="O18">
-        <v>0.0818099111979609</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="P18">
-        <v>0.0818099111979609</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="Q18">
-        <v>38.78616505345463</v>
+        <v>1.028972927605778</v>
       </c>
       <c r="R18">
-        <v>38.78616505345463</v>
+        <v>9.260756348452002</v>
       </c>
       <c r="S18">
-        <v>0.001235861035222137</v>
+        <v>2.775085576625704E-05</v>
       </c>
       <c r="T18">
-        <v>0.001235861035222137</v>
+        <v>2.775085576625704E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>46.2018723605547</v>
+        <v>0.4181903333333334</v>
       </c>
       <c r="H19">
-        <v>46.2018723605547</v>
+        <v>1.254571</v>
       </c>
       <c r="I19">
-        <v>0.01510649525375528</v>
+        <v>0.0001353379847139687</v>
       </c>
       <c r="J19">
-        <v>0.01510649525375528</v>
+        <v>0.0001353379847139686</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.45263670601819</v>
+        <v>0.36615</v>
       </c>
       <c r="N19">
-        <v>2.45263670601819</v>
+        <v>1.09845</v>
       </c>
       <c r="O19">
-        <v>0.2390131962287557</v>
+        <v>0.03051305940608911</v>
       </c>
       <c r="P19">
-        <v>0.2390131962287557</v>
+        <v>0.03051305940608911</v>
       </c>
       <c r="Q19">
-        <v>113.3164080382637</v>
+        <v>0.15312039055</v>
       </c>
       <c r="R19">
-        <v>113.3164080382637</v>
+        <v>1.37808351495</v>
       </c>
       <c r="S19">
-        <v>0.003610651714414578</v>
+        <v>4.129575967477706E-06</v>
       </c>
       <c r="T19">
-        <v>0.003610651714414578</v>
+        <v>4.129575967477705E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>46.2018723605547</v>
+        <v>0.4181903333333334</v>
       </c>
       <c r="H20">
-        <v>46.2018723605547</v>
+        <v>1.254571</v>
       </c>
       <c r="I20">
-        <v>0.01510649525375528</v>
+        <v>0.0001353379847139687</v>
       </c>
       <c r="J20">
-        <v>0.01510649525375528</v>
+        <v>0.0001353379847139686</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.29428765945227</v>
+        <v>0.1263393333333333</v>
       </c>
       <c r="N20">
-        <v>0.29428765945227</v>
+        <v>0.379018</v>
       </c>
       <c r="O20">
-        <v>0.02867878227695617</v>
+        <v>0.01052847079974244</v>
       </c>
       <c r="P20">
-        <v>0.02867878227695617</v>
+        <v>0.01052847079974244</v>
       </c>
       <c r="Q20">
-        <v>13.59664087930017</v>
+        <v>0.05283388791977778</v>
       </c>
       <c r="R20">
-        <v>13.59664087930017</v>
+        <v>0.4755049912780001</v>
       </c>
       <c r="S20">
-        <v>0.0004332358883503195</v>
+        <v>1.424902020157008E-06</v>
       </c>
       <c r="T20">
-        <v>0.0004332358883503195</v>
+        <v>1.424902020157007E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>46.2018723605547</v>
+        <v>0.4181903333333334</v>
       </c>
       <c r="H21">
-        <v>46.2018723605547</v>
+        <v>1.254571</v>
       </c>
       <c r="I21">
-        <v>0.01510649525375528</v>
+        <v>0.0001353379847139687</v>
       </c>
       <c r="J21">
-        <v>0.01510649525375528</v>
+        <v>0.0001353379847139686</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.67509396000577</v>
+        <v>8.062729666666668</v>
       </c>
       <c r="N21">
-        <v>6.67509396000577</v>
+        <v>24.188189</v>
       </c>
       <c r="O21">
-        <v>0.6504981102963272</v>
+        <v>0.671906457173937</v>
       </c>
       <c r="P21">
-        <v>0.6504981102963272</v>
+        <v>0.671906457173937</v>
       </c>
       <c r="Q21">
-        <v>308.4018391348962</v>
+        <v>3.37175560687989</v>
       </c>
       <c r="R21">
-        <v>308.4018391348962</v>
+        <v>30.345800461919</v>
       </c>
       <c r="S21">
-        <v>0.009826746615768246</v>
+        <v>9.093446583022314E-05</v>
       </c>
       <c r="T21">
-        <v>0.009826746615768246</v>
+        <v>9.093446583022312E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>48.15243766666666</v>
+      </c>
+      <c r="H22">
+        <v>144.457313</v>
+      </c>
+      <c r="I22">
+        <v>0.01558346368488909</v>
+      </c>
+      <c r="J22">
+        <v>0.01558346368488908</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.9840236666666667</v>
+      </c>
+      <c r="N22">
+        <v>2.952071</v>
+      </c>
+      <c r="O22">
+        <v>0.08200347561927523</v>
+      </c>
+      <c r="P22">
+        <v>0.08200347561927523</v>
+      </c>
+      <c r="Q22">
+        <v>47.38313827169144</v>
+      </c>
+      <c r="R22">
+        <v>426.448244445223</v>
+      </c>
+      <c r="S22">
+        <v>0.001277898184347663</v>
+      </c>
+      <c r="T22">
+        <v>0.001277898184347663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>48.15243766666666</v>
+      </c>
+      <c r="H23">
+        <v>144.457313</v>
+      </c>
+      <c r="I23">
+        <v>0.01558346368488909</v>
+      </c>
+      <c r="J23">
+        <v>0.01558346368488908</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.460537333333333</v>
+      </c>
+      <c r="N23">
+        <v>7.381612000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.2050485370009561</v>
+      </c>
+      <c r="P23">
+        <v>0.2050485370009561</v>
+      </c>
+      <c r="Q23">
+        <v>118.4808705698396</v>
+      </c>
+      <c r="R23">
+        <v>1066.327835128556</v>
+      </c>
+      <c r="S23">
+        <v>0.003195366429994035</v>
+      </c>
+      <c r="T23">
+        <v>0.003195366429994035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>48.15243766666666</v>
+      </c>
+      <c r="H24">
+        <v>144.457313</v>
+      </c>
+      <c r="I24">
+        <v>0.01558346368488909</v>
+      </c>
+      <c r="J24">
+        <v>0.01558346368488908</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.36615</v>
+      </c>
+      <c r="N24">
+        <v>1.09845</v>
+      </c>
+      <c r="O24">
+        <v>0.03051305940608911</v>
+      </c>
+      <c r="P24">
+        <v>0.03051305940608911</v>
+      </c>
+      <c r="Q24">
+        <v>17.63101505165</v>
+      </c>
+      <c r="R24">
+        <v>158.67913546485</v>
+      </c>
+      <c r="S24">
+        <v>0.000475499153169653</v>
+      </c>
+      <c r="T24">
+        <v>0.000475499153169653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>48.15243766666666</v>
+      </c>
+      <c r="H25">
+        <v>144.457313</v>
+      </c>
+      <c r="I25">
+        <v>0.01558346368488909</v>
+      </c>
+      <c r="J25">
+        <v>0.01558346368488908</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.1263393333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.379018</v>
+      </c>
+      <c r="O25">
+        <v>0.01052847079974244</v>
+      </c>
+      <c r="P25">
+        <v>0.01052847079974244</v>
+      </c>
+      <c r="Q25">
+        <v>6.083546873181555</v>
+      </c>
+      <c r="R25">
+        <v>54.75192185863401</v>
+      </c>
+      <c r="S25">
+        <v>0.0001640700423652014</v>
+      </c>
+      <c r="T25">
+        <v>0.0001640700423652014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>48.15243766666666</v>
+      </c>
+      <c r="H26">
+        <v>144.457313</v>
+      </c>
+      <c r="I26">
+        <v>0.01558346368488909</v>
+      </c>
+      <c r="J26">
+        <v>0.01558346368488908</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.062729666666668</v>
+      </c>
+      <c r="N26">
+        <v>24.188189</v>
+      </c>
+      <c r="O26">
+        <v>0.671906457173937</v>
+      </c>
+      <c r="P26">
+        <v>0.671906457173937</v>
+      </c>
+      <c r="Q26">
+        <v>388.2400876973508</v>
+      </c>
+      <c r="R26">
+        <v>3494.160789276157</v>
+      </c>
+      <c r="S26">
+        <v>0.01047062987501253</v>
+      </c>
+      <c r="T26">
+        <v>0.01047062987501253</v>
       </c>
     </row>
   </sheetData>
